--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lgi3-Adam22.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lgi3-Adam22.xlsx
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.319612666666667</v>
+        <v>1.507281333333333</v>
       </c>
       <c r="N2">
-        <v>9.958838</v>
+        <v>4.521844</v>
       </c>
       <c r="O2">
-        <v>0.1773188829476472</v>
+        <v>0.2777659256678391</v>
       </c>
       <c r="P2">
-        <v>0.2112475282640173</v>
+        <v>0.2908185693226504</v>
       </c>
       <c r="Q2">
-        <v>5.334830010544</v>
+        <v>2.422297568672</v>
       </c>
       <c r="R2">
-        <v>48.013470094896</v>
+        <v>21.800678118048</v>
       </c>
       <c r="S2">
-        <v>0.1773188829476472</v>
+        <v>0.2777659256678391</v>
       </c>
       <c r="T2">
-        <v>0.2112475282640173</v>
+        <v>0.2908185693226504</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,10 +626,10 @@
         <v>3.676898</v>
       </c>
       <c r="O3">
-        <v>0.0654678232613522</v>
+        <v>0.2258629392248442</v>
       </c>
       <c r="P3">
-        <v>0.07799460280194422</v>
+        <v>0.2364765825413957</v>
       </c>
       <c r="Q3">
         <v>1.969670135824</v>
@@ -638,10 +638,10 @@
         <v>17.727031222416</v>
       </c>
       <c r="S3">
-        <v>0.0654678232613522</v>
+        <v>0.2258629392248442</v>
       </c>
       <c r="T3">
-        <v>0.07799460280194422</v>
+        <v>0.2364765825413957</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.216913333333333</v>
+        <v>0.9373149999999999</v>
       </c>
       <c r="N4">
-        <v>6.65074</v>
+        <v>2.811945</v>
       </c>
       <c r="O4">
-        <v>0.1184176093210107</v>
+        <v>0.1727309712259096</v>
       </c>
       <c r="P4">
-        <v>0.1410759353778654</v>
+        <v>0.1808478624901656</v>
       </c>
       <c r="Q4">
-        <v>3.56272160912</v>
+        <v>1.50632519316</v>
       </c>
       <c r="R4">
-        <v>32.06449448208</v>
+        <v>13.55692673844</v>
       </c>
       <c r="S4">
-        <v>0.1184176093210107</v>
+        <v>0.1727309712259096</v>
       </c>
       <c r="T4">
-        <v>0.1410759353778654</v>
+        <v>0.1808478624901656</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.020457499999999</v>
+        <v>0.730656</v>
       </c>
       <c r="N5">
-        <v>18.040915</v>
+        <v>1.461312</v>
       </c>
       <c r="O5">
-        <v>0.4818325534294442</v>
+        <v>0.1346472856105345</v>
       </c>
       <c r="P5">
-        <v>0.3826850784570683</v>
+        <v>0.0939830443451877</v>
       </c>
       <c r="Q5">
-        <v>14.49645251178</v>
+        <v>1.174210953984</v>
       </c>
       <c r="R5">
-        <v>86.97871507068</v>
+        <v>7.045265723904</v>
       </c>
       <c r="S5">
-        <v>0.4818325534294442</v>
+        <v>0.1346472856105345</v>
       </c>
       <c r="T5">
-        <v>0.3826850784570683</v>
+        <v>0.0939830443451877</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.938529666666666</v>
+        <v>1.025559333333333</v>
       </c>
       <c r="N6">
-        <v>8.815588999999999</v>
+        <v>3.076678</v>
       </c>
       <c r="O6">
-        <v>0.1569631310405457</v>
+        <v>0.1889928782708727</v>
       </c>
       <c r="P6">
-        <v>0.1869968550991049</v>
+        <v>0.1978739413006007</v>
       </c>
       <c r="Q6">
-        <v>4.722405240232</v>
+        <v>1.648139484464</v>
       </c>
       <c r="R6">
-        <v>42.501647162088</v>
+        <v>14.833255360176</v>
       </c>
       <c r="S6">
-        <v>0.1569631310405457</v>
+        <v>0.1889928782708727</v>
       </c>
       <c r="T6">
-        <v>0.1869968550991049</v>
+        <v>0.1978739413006007</v>
       </c>
     </row>
   </sheetData>
